--- a/excel/Datas/__tables__.xlsx
+++ b/excel/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420"/>
+    <workbookView windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>##var</t>
   </si>
@@ -115,31 +115,16 @@
     <t>parser_mode=column或stream，默认为column</t>
   </si>
   <si>
-    <t>TbDemoGroupDefineFromExcel</t>
-  </si>
-  <si>
-    <t>DemoGroup</t>
-  </si>
-  <si>
-    <t>item@item.xlsx</t>
-  </si>
-  <si>
-    <t>TbDemoGroupDefineFromExcel1</t>
-  </si>
-  <si>
-    <t>DemoGroup1</t>
-  </si>
-  <si>
-    <t>Sheet1@item.xlsx</t>
-  </si>
-  <si>
-    <t>TbCityMap</t>
-  </si>
-  <si>
-    <t>CityMap</t>
-  </si>
-  <si>
-    <t>CityMap.xlsx</t>
+    <t>TbGlobalVar</t>
+  </si>
+  <si>
+    <t>GlobalVar</t>
+  </si>
+  <si>
+    <t>b_GlobalVar.xlsx</t>
+  </si>
+  <si>
+    <t>one</t>
   </si>
 </sst>
 </file>
@@ -1087,7 +1072,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
@@ -1096,7 +1081,7 @@
     <col min="3" max="3" width="13.125" customWidth="1"/>
     <col min="4" max="4" width="39" customWidth="1"/>
     <col min="5" max="5" width="24.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="91.125" customWidth="1"/>
+    <col min="6" max="6" width="44.75" customWidth="1"/>
     <col min="7" max="7" width="32.125" customWidth="1"/>
     <col min="8" max="8" width="9.88333333333333" customWidth="1"/>
     <col min="9" max="9" width="10.1083333333333" customWidth="1"/>
@@ -1214,7 +1199,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:7">
       <c r="B4" t="s">
         <v>33</v>
       </c>
@@ -1227,34 +1212,14 @@
       <c r="E4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" customFormat="1" spans="2:5">
-      <c r="B5" t="s">
+      <c r="G4" t="s">
         <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="2"/>
@@ -1264,8 +1229,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" display="item@item.xlsx" tooltip="mailto:item@item.xlsx"/>
-    <hyperlink ref="E5" r:id="rId2" display="Sheet1@item.xlsx" tooltip="mailto:Sheet1@item.xlsx"/>
+    <hyperlink ref="E4" r:id="rId1" display="b_GlobalVar.xlsx" tooltip="mailto:item@item.xlsx"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/excel/Datas/__tables__.xlsx
+++ b/excel/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12345"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -121,7 +121,7 @@
     <t>GlobalVar</t>
   </si>
   <si>
-    <t>b_GlobalVar.xlsx</t>
+    <t>0_GlobalVar.xlsx</t>
   </si>
   <si>
     <t>one</t>
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -153,34 +153,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -194,14 +166,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -246,6 +210,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -284,7 +263,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,49 +305,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,115 +437,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,21 +490,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -537,6 +522,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,148 +595,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -744,7 +744,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -753,52 +753,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1072,7 +1072,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
@@ -1229,7 +1229,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" display="b_GlobalVar.xlsx" tooltip="mailto:item@item.xlsx"/>
+    <hyperlink ref="E4" r:id="rId1" display="0_GlobalVar.xlsx" tooltip="mailto:item@item.xlsx"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/excel/Datas/__tables__.xlsx
+++ b/excel/Datas/__tables__.xlsx
@@ -9,12 +9,25 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>##var</t>
   </si>
@@ -25,7 +38,7 @@
     <t>value_type</t>
   </si>
   <si>
-    <t>define_from_file</t>
+    <t>read_schema_from_file</t>
   </si>
   <si>
     <t>input</t>
@@ -43,18 +56,12 @@
     <t>comment</t>
   </si>
   <si>
-    <t>patch_input</t>
-  </si>
-  <si>
     <t>tags</t>
   </si>
   <si>
     <t>output</t>
   </si>
   <si>
-    <t>options</t>
-  </si>
-  <si>
     <t>##</t>
   </si>
   <si>
@@ -82,15 +89,9 @@
     <t>注释</t>
   </si>
   <si>
-    <t>分支文件列表</t>
-  </si>
-  <si>
     <t>输出文件名</t>
   </si>
   <si>
-    <t>额外选项</t>
-  </si>
-  <si>
     <t>false时取已有定义，true为从excel标题头和属性栏读取定义</t>
   </si>
   <si>
@@ -106,31 +107,58 @@
     <t>取值c|s|e，可以有多个，以逗号','分隔。空则表示属于所有分组</t>
   </si>
   <si>
-    <t>用于本地化。可以多个，以逗号分隔</t>
-  </si>
-  <si>
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
   </si>
   <si>
-    <t>parser_mode=column或stream，默认为column</t>
-  </si>
-  <si>
     <t>TbGlobalVar</t>
   </si>
   <si>
-    <t>GlobalVar</t>
+    <t>TGlobalVar</t>
   </si>
   <si>
     <t>0_GlobalVar.xlsx</t>
   </si>
   <si>
     <t>one</t>
+  </si>
+  <si>
+    <t>TbGuide</t>
+  </si>
+  <si>
+    <t>TGuide</t>
+  </si>
+  <si>
+    <t>Guide@0_GameGuide.xlsx</t>
+  </si>
+  <si>
+    <t>TbUnforcedGuide</t>
+  </si>
+  <si>
+    <t>TUnforcedGuide</t>
+  </si>
+  <si>
+    <t>UnforcedGuide@0_GameGuide.xlsx</t>
+  </si>
+  <si>
+    <t>TbGuideOpenPlan</t>
+  </si>
+  <si>
+    <t>TGuideOpenPlan</t>
+  </si>
+  <si>
+    <t>TbLocalization</t>
+  </si>
+  <si>
+    <t>TLocalization</t>
+  </si>
+  <si>
+    <t>0_Localization.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -740,14 +768,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1069,29 +1094,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelRow="7"/>
   <cols>
-    <col min="2" max="2" width="32.75" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="39" customWidth="1"/>
-    <col min="5" max="5" width="24.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="44.75" customWidth="1"/>
-    <col min="7" max="7" width="32.125" customWidth="1"/>
-    <col min="8" max="8" width="9.88333333333333" customWidth="1"/>
-    <col min="9" max="9" width="10.1083333333333" customWidth="1"/>
-    <col min="10" max="10" width="11.6666666666667" customWidth="1"/>
-    <col min="11" max="11" width="9.10833333333333" customWidth="1"/>
-    <col min="12" max="12" width="7.55833333333333" customWidth="1"/>
-    <col min="13" max="13" width="19.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="29.1061946902655" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="5" max="5" width="33.4513274336283" customWidth="1"/>
+    <col min="6" max="6" width="12.6637168141593" customWidth="1"/>
+    <col min="7" max="7" width="11.2212389380531" customWidth="1"/>
+    <col min="8" max="8" width="9.88495575221239" customWidth="1"/>
+    <col min="9" max="9" width="10.1061946902655" customWidth="1"/>
+    <col min="10" max="10" width="9.10619469026549" customWidth="1"/>
+    <col min="11" max="11" width="7.54867256637168" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:13">
+    <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1125,111 +1148,142 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:11">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:13">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="1" t="s">
+    <row r="3" s="1" customFormat="1" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:13">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="2:5">
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="2:5">
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
         <v>35</v>
       </c>
-      <c r="G4" t="s">
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="E6" s="2"/>
+    <row r="7" customFormat="1" spans="2:5">
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+    <row r="8" customFormat="1" spans="2:5">
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" display="0_GlobalVar.xlsx" tooltip="mailto:item@item.xlsx"/>
+    <hyperlink ref="E5" r:id="rId2" display="Guide@0_GameGuide.xlsx" tooltip="mailto:Guide@0_GameGuide.xlsx"/>
+    <hyperlink ref="E6" r:id="rId3" display="UnforcedGuide@0_GameGuide.xlsx" tooltip="mailto:UnforcedGuide@0_GameGuide.xlsx"/>
+    <hyperlink ref="E7" r:id="rId2" display="Guide@0_GameGuide.xlsx" tooltip="mailto:Guide@0_GameGuide.xlsx"/>
+    <hyperlink ref="E8" r:id="rId1" display="0_Localization.xlsx" tooltip="mailto:item@item.xlsx"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/excel/Datas/__tables__.xlsx
+++ b/excel/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>##var</t>
   </si>
@@ -140,10 +140,13 @@
     <t>UnforcedGuide@0_GameGuide.xlsx</t>
   </si>
   <si>
-    <t>TbGuideOpenPlan</t>
-  </si>
-  <si>
-    <t>TGuideOpenPlan</t>
+    <t>TbGuideOpen</t>
+  </si>
+  <si>
+    <t>TGuideOpen</t>
+  </si>
+  <si>
+    <t>GuideOpen@0_GameGuide.xlsx</t>
   </si>
   <si>
     <t>TbLocalization</t>
@@ -1097,21 +1100,21 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <cols>
-    <col min="2" max="2" width="29.1061946902655" customWidth="1"/>
+    <col min="2" max="2" width="29.1083333333333" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="33.4513274336283" customWidth="1"/>
-    <col min="6" max="6" width="12.6637168141593" customWidth="1"/>
-    <col min="7" max="7" width="11.2212389380531" customWidth="1"/>
-    <col min="8" max="8" width="9.88495575221239" customWidth="1"/>
-    <col min="9" max="9" width="10.1061946902655" customWidth="1"/>
-    <col min="10" max="10" width="9.10619469026549" customWidth="1"/>
-    <col min="11" max="11" width="7.54867256637168" customWidth="1"/>
+    <col min="5" max="5" width="33.45" customWidth="1"/>
+    <col min="6" max="6" width="12.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="11.225" customWidth="1"/>
+    <col min="8" max="8" width="9.88333333333333" customWidth="1"/>
+    <col min="9" max="9" width="10.1083333333333" customWidth="1"/>
+    <col min="10" max="10" width="9.10833333333333" customWidth="1"/>
+    <col min="11" max="11" width="7.55" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:11">
@@ -1260,21 +1263,21 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="2:5">
       <c r="B8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1282,7 +1285,7 @@
     <hyperlink ref="E4" r:id="rId1" display="0_GlobalVar.xlsx" tooltip="mailto:item@item.xlsx"/>
     <hyperlink ref="E5" r:id="rId2" display="Guide@0_GameGuide.xlsx" tooltip="mailto:Guide@0_GameGuide.xlsx"/>
     <hyperlink ref="E6" r:id="rId3" display="UnforcedGuide@0_GameGuide.xlsx" tooltip="mailto:UnforcedGuide@0_GameGuide.xlsx"/>
-    <hyperlink ref="E7" r:id="rId2" display="Guide@0_GameGuide.xlsx" tooltip="mailto:Guide@0_GameGuide.xlsx"/>
+    <hyperlink ref="E7" r:id="rId4" display="GuideOpen@0_GameGuide.xlsx" tooltip="mailto:GuideOpen@0_GameGuide.xlsx"/>
     <hyperlink ref="E8" r:id="rId1" display="0_Localization.xlsx" tooltip="mailto:item@item.xlsx"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
